--- a/medicine/Mort/Requiem/Requiem.xlsx
+++ b/medicine/Mort/Requiem/Requiem.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le requiem (forme à l'accusatif du latin requies signifiant repos), ou messe de requiem, est une messe de l'Église catholique célébrée lors de funérailles ou de cérémonies du souvenir. Cette prière pour les âmes des défunts est aussi connue sous le nom latin de Missa pro defunctis ou Missa defunctorum (Messe pour les défunts ou Messe des défunts). Elle est parfois pratiquée par d’autres Églises chrétiennes comme les Églises anglicane et orthodoxe.
 Son nom vient du premier mot (l'incipit) de l’Introït : Requiem æternam dona ei [ou eis], Domine, et lux perpetua luceat ei [ou eis] (Donne-lui/donne-leur le repos éternel, Seigneur, et que la lumière perpétuelle luise pour lui/pour eux).
@@ -513,13 +525,15 @@
           <t>Textes liturgiques catholiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le texte de la messe pour les défunts, dite de requiem, appartient à la catégorie des messes votives. La messe de requiem diffère des messes solennelles par le fait qu'elle ne comporte ni Gloria, ni Credo ni Alleluia  (qui est remplacé par un Trait) et par l’existence d'une Séquence qui lui est propre, le Dies iræ. En chant grégorien, la Messe de Requiem comporte des mélodies qui lui sont propres, pour le Kyrie, le Sanctus et l'Agnus Dei.
 Le Dies iræ est devenu facultatif dans le requiem en 1967 et a été supprimé de la Messe en 1969, laquelle a inversement réintroduit l'Alleluia dans cette liturgie.
-L'Introït de la messe des défunts en usage depuis le Concile de Trente, dont l'incipit (premier mot) a donné son nom à cette messe, commence par le verset « requiem æternam dona eis Domine et lux perpetua luceat eis » dont le texte est inspiré d'un passage du Quatrième livre d'Esdras (4 Esdras 2, 34-35)[1]. Le Quatrième livre d'Esdras ne fait pas partie du canon de  la Bible latine catholique, défini aux conciles de Florence et Trente, mais il se trouve dans de nombreux manuscrits anciens de la Bible latine [2].
-Le formulaire de la messe « requiem æternam », décrit ci-dessous, est absent de l'antiphonaire romain primitif[3]. Il faut attendre le Xe siècle pour le voir apparaître, notamment dans l'antiphonaire de type romain édité par les Mauristes[4]. Dans le rite romain, un seul formulaire des textes de la messe des défunts est en usage depuis le concile de Trente. À la fin du Moyen Âge, en France et notamment à Paris, plusieurs formulaires différents ont été en usage jusqu'au XIXe siècle[5].
-Voici les textes actuels du requiem dans la liturgie catholique[6]
+L'Introït de la messe des défunts en usage depuis le Concile de Trente, dont l'incipit (premier mot) a donné son nom à cette messe, commence par le verset « requiem æternam dona eis Domine et lux perpetua luceat eis » dont le texte est inspiré d'un passage du Quatrième livre d'Esdras (4 Esdras 2, 34-35). Le Quatrième livre d'Esdras ne fait pas partie du canon de  la Bible latine catholique, défini aux conciles de Florence et Trente, mais il se trouve dans de nombreux manuscrits anciens de la Bible latine .
+Le formulaire de la messe « requiem æternam », décrit ci-dessous, est absent de l'antiphonaire romain primitif. Il faut attendre le Xe siècle pour le voir apparaître, notamment dans l'antiphonaire de type romain édité par les Mauristes. Dans le rite romain, un seul formulaire des textes de la messe des défunts est en usage depuis le concile de Trente. À la fin du Moyen Âge, en France et notamment à Paris, plusieurs formulaires différents ont été en usage jusqu'au XIXe siècle.
+Voici les textes actuels du requiem dans la liturgie catholique
 Introït (Introitus) :
 Requiem æternam dona eis, Domine, et lux perpetua luceat eis.
 Te decet hymnus Deus, in Sion, et tibi reddetur votum in Jerusalem.
@@ -619,9 +633,11 @@
           <t>Compositions musicales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forme ordinaire du chant de la messe pour les défunts est en grégorien. La première version polyphonique connue a été composée par Johannes Ockeghem vers 1461 ou 1483 ; son requiem est considéré comme copié d’un compositeur légèrement plus ancien, Guillaume Dufaÿ (mais l'œuvre de ce dernier est perdue)[7]. Les premiers requiem utilisent différents textes de plusieurs liturgies européennes avant que le  Concile de Trente n’adopte le texte ci-dessus. Le Requiem d'Antoine Brumel (avant 1519 : 1516 ?) est le premier à inclure le Dies iræ.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forme ordinaire du chant de la messe pour les défunts est en grégorien. La première version polyphonique connue a été composée par Johannes Ockeghem vers 1461 ou 1483 ; son requiem est considéré comme copié d’un compositeur légèrement plus ancien, Guillaume Dufaÿ (mais l'œuvre de ce dernier est perdue). Les premiers requiem utilisent différents textes de plusieurs liturgies européennes avant que le  Concile de Trente n’adopte le texte ci-dessus. Le Requiem d'Antoine Brumel (avant 1519 : 1516 ?) est le premier à inclure le Dies iræ.
 À ce jour plus de deux mille requiem ont été composés. Les versions de la Renaissance sont en principe a cappella (c'est-à-dire sans accompagnement instrumental) et environ mille six cents compositeurs ultérieurs ont choisi d’utiliser des instruments pour accompagner le chœur et emploient également des chanteurs solistes.
 La plupart des compositeurs omettent des parties de la liturgie, la plupart du temps le Graduel et le Trait. Gabriel Fauré et Maurice Duruflé n’ont pas inclus le Dies iræ (seule ce qu'on pourrait appeler la préfiguration ancienne et encore très peu développée de cette prière apparaît dans le Libera me du requiem de Fauré). Dans les époques précédentes, le texte complet de la Séquence médiévale avait souvent été utilisé par les compositeurs dans des œuvres indépendantes.
 De temps en temps, les compositeurs divisent certains des textes de cette liturgie en deux ou plusieurs épisodes à cause de leur longueur. Ainsi, le Dies iræ, qui comprend vingt strophes, est le plus souvent divisé en plusieurs parties (c'est le cas dans le requiem de Mozart). L’Introït et le Kyrie, qui se chantent à la suite l'un de l'autre dans la liturgie catholique, sont souvent rassemblés en un seul épisode.
@@ -653,7 +669,9 @@
           <t>Les requiem de concert</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">De la fin du XVIIIe siècle jusqu'à la fin du XIXe siècle, de nombreux compositeurs ont écrit des requiem si longs ou utilisant tant d'interprètes qu’ils ne pouvaient pas être exécutés pendant un service funèbre religieux normal ; les requiem de Gossec, Berlioz, Saint-Saëns, Verdi et Dvořák sont des oratorios. Une contre-réaction à ce mouvement vint du Mouvement cécilien qui recommandait un accompagnement restreint pour la musique liturgique et voyait d’un mauvais œil l’utilisation de solistes vocaux.
 </t>
@@ -684,9 +702,11 @@
           <t>Les requiem non catholiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme requiem est aussi utilisé pour désigner n'importe quelle composition sacrée au texte religieux approprié pour des funérailles, en particulier les Requiem des autres confessions. Les requiem allemands composés au XVIIe siècle par Schütz et Praetorius font partie des plus anciens requiem de ce type ; ce sont des adaptations luthériennes du requiem catholique. Ils ont servi d'inspiration au célèbre Ein deutsches Requiem (Un Requiem allemand) de Brahms.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le terme requiem est aussi utilisé pour désigner n'importe quelle composition sacrée au texte religieux approprié pour des funérailles, en particulier les Requiem des autres confessions. Les requiem allemands composés au XVIIe siècle par Schütz et Praetorius font partie des plus anciens requiem de ce type ; ce sont des adaptations luthériennes du requiem catholique. Ils ont servi d'inspiration au célèbre Ein deutsches Requiem (Un Requiem allemand) de Brahms.
 Les requiem non catholiques :
 Protestant
 Luthérien (Allemand)
@@ -694,9 +714,43 @@
 Judaïque - Kaddish
 Orthodoxe
 Église orthodoxe de Grèce - Parastás
-Église orthodoxe russe - Panikhida
-Service funèbre anglican
-Le Livre de la prière commune (1552) anglican contient sept textes connus sous le nom de funeral sentences ; plusieurs compositeurs ont écrit à partir de ces sept textes connus sous le nom de service funèbre. Les principaux compositeurs de requiem anglicans sont Thomas Morley, Orlando Gibbons, et Henry Purcell.
+Église orthodoxe russe - Panikhida</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Requiem</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Requiem</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Les requiem non catholiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Service funèbre anglican</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le Livre de la prière commune (1552) anglican contient sept textes connus sous le nom de funeral sentences ; plusieurs compositeurs ont écrit à partir de ces sept textes connus sous le nom de service funèbre. Les principaux compositeurs de requiem anglicans sont Thomas Morley, Orlando Gibbons, et Henry Purcell.
 Le texte des seven sentences tiré du Livre des Prières publiques :
 I am the resurrection and the life, saith the Lord : he that believeth in me, though he were dead, yet shall he live : and whosoever liveth and believeth in me shall never die.
 I know that my Redeemer liveth, and that he shalt stand at the latter day upon the earth. And though after my skin worms destroy this body, yet in my flesh shall I see God : whom I shall see for myself, and mine eyes shall behold, and not another.
@@ -704,84 +758,227 @@
 Man that is born of a woman hath but a short time to live, and is full of misery. He cometh up, and is cut down, like a flower ; he fleeth as it were a shadow, and never continueth in one stay.
 In the midst of life we are in death : of whom may we seek for succour, but of thee, O Lord, who for our sins art justly displeased? Yet, O Lord God most holy, O Lord most mighty, O holy and most merciful Saviour, deliver us not into the bitter pains of eternal death.
 Thou knowest, Lord, the secrets of our hearts; shut not thy merciful ears to our prayer ; but spare us, Lord most holy, O God most mighty, O holy and merciful Saviour, thou most worthy judge eternal, suffer us not, at our last hour, for any pains of death, to fall from thee.
-I heard a voice from heaven, saying unto me, Write, From henceforth blessed are the dead which die in the Lord : even so saith the Spirit: for they rest from their labours.
-Kaddish des endeuillés
-Le Kaddish des endeuillés fait partie des rituels de deuil dans le judaïsme.
+I heard a voice from heaven, saying unto me, Write, From henceforth blessed are the dead which die in the Lord : even so saith the Spirit: for they rest from their labours.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Requiem</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Requiem</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Les requiem non catholiques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Kaddish des endeuillés</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Kaddish des endeuillés fait partie des rituels de deuil dans le judaïsme.
 Les mots d'ouverture de cette prière sont inspirés du verset  38,23, une vision de Dieu "devenant" grand aux yeux de toutes les nations.
-La ligne capitale du kaddish dans la tradition juive est la réponse de la congrégation « Que Son grand Nom soit béni pour toujours et pour toute l'éternité » (cf. traité Berakhot 3a). Il s'agit d'affirmer la grandeur et l'éternité de Dieu[8].
+La ligne capitale du kaddish dans la tradition juive est la réponse de la congrégation « Que Son grand Nom soit béni pour toujours et pour toute l'éternité » (cf. traité Berakhot 3a). Il s'agit d'affirmer la grandeur et l'éternité de Dieu.
 La première mention d'un Kaddish pendant le service a été faite dans un Halakha au XIIIe siècle par Isaac ben Moses de Vienne.
-Le Kaddish de la fin du service fut dénommé le Kaddish Yatom (קדיש יתום) ou Kaddish des endeuillés (littéralement le Kaddish de l'orphelin)[9].
-Service funèbre orthodoxe
-Dans les églises orthodoxes, le requiem est la forme complète du service funèbre (Grec : Parastás, Slave : Panikhida).
+Le Kaddish de la fin du service fut dénommé le Kaddish Yatom (קדיש יתום) ou Kaddish des endeuillés (littéralement le Kaddish de l'orphelin).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Requiem</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Requiem</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Les requiem non catholiques</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Service funèbre orthodoxe</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les églises orthodoxes, le requiem est la forme complète du service funèbre (Grec : Parastás, Slave : Panikhida).
 Le service funèbre normal est une forme abrégée des matines mais le requiem contient tous les psaumes, lectures et hymne utilisés lors des matines, des vêpres et Prime. Le requiem complet dure environ trois heures et demie. Dans cette configuration il représente clairement le concept de Parastás qui signifie littéralement Veiller toute la nuit. On rencontre souvent un autre service le matin suivant en l'honneur du défunt.
 À cause de leur longueur, les requiem sont souvent dans une version abrégée. Cependant, au moins dans la tradition liturgique russe, un requiem sera souvent célébré la veille de la canonisation d'un saint lors d'un service spécial appelé le dernier Panikhida.
-Francisation de terme
-Depuis 2001, l'Académie française emploie ce mot avec minuscule mais invariable : des requiem[10].
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Requiem</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Requiem</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Requiem</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Requiem</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Les requiem non catholiques</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Francisation de terme</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 2001, l'Académie française emploie ce mot avec minuscule mais invariable : des requiem.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Requiem</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Requiem</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Développements au XXe siècle</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Le requiem a évolué dans de nouvelles directions au siècle dernier. Le genre Requiem de Guerre, qui consiste en des œuvres dédiées à la mémoire de personnes tuées en temps de guerre, est peut-être le plus notable. Ce genre inclut souvent des poèmes non liturgiques ou pacifistes ; par exemple le War Requiem de Benjamin Britten juxtapose le texte latin avec des poésies de Wilfred Owen et dans Mass in Black[11], Robert Steadman (en) entremêle la poésie écologiste et les prophéties de Nostradamus.
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le requiem a évolué dans de nouvelles directions au siècle dernier. Le genre Requiem de Guerre, qui consiste en des œuvres dédiées à la mémoire de personnes tuées en temps de guerre, est peut-être le plus notable. Ce genre inclut souvent des poèmes non liturgiques ou pacifistes ; par exemple le War Requiem de Benjamin Britten juxtapose le texte latin avec des poésies de Wilfred Owen et dans Mass in Black, Robert Steadman (en) entremêle la poésie écologiste et les prophéties de Nostradamus.
 Pour finir, le XXe siècle a vu le développement des requiem profanes, écrits pour être joués sans rapport avec la religion ou avec la liturgie (par exemple le Requiem d'époque stalinienne, écrit par Kabalevski avec les poèmes de Robert Rojdestvenski), et certains compositeurs ont écrit des œuvres purement instrumentales portant le nom de requiem comme la Sinfonia da Requiem de Britten.
-Chanson française
-Serge Gainsbourg a intitulé une de ses chansons Requiem pour un con (BO du Pacha, 1968).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Requiem</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Requiem</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Développements au XXe siècle</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Chanson française</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Serge Gainsbourg a intitulé une de ses chansons Requiem pour un con (BO du Pacha, 1968).
 Léo Ferré a intitulé une de ses chansons Requiem. C'est une lente déploration énumérative à la fin de laquelle il appelle au silence. Il en existe une version instrumentale (album Ferré muet..., 1975) et une version chantée (album Je te donne, 1976).
 Johnny Hallyday a interprété une chanson intitulée Requiem pour un fou (album Derrière l'amour, 1976).
 Babx a intitulé une de ses chansons Remington Requiem (album Cristal Ballroom, 2009).</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Requiem</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Requiem</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Requiem</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Requiem</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Requiem célèbres</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Liste non exhaustive par ordre chronologique 
 Johannes Ockeghem, Requiem, 1461 ou 1483
@@ -789,7 +986,7 @@
 Antoine de Févin, Requiem pour Anne de Bretagne, 1514
 Pierre Cléreau, Requiem pour Claude de Lorraine (1550) porte aussi le nom de Missa pro Mortuis (« Messe pour les morts »).
 Roland de Lassus, Missa pro defunctis (« Messe pour les défunts ») composée en 1580
-Eustache du Caurroy, Composé en 1590 porte aussi le nom de Missa pro defunctis, dit Requiem des rois de France (à partir des obsèques d'Henri IV jusqu'en 1789, musique officielle des funérailles royales)[12]
+Eustache du Caurroy, Composé en 1590 porte aussi le nom de Missa pro defunctis, dit Requiem des rois de France (à partir des obsèques d'Henri IV jusqu'en 1789, musique officielle des funérailles royales)
 Giovanni Pierluigi da Palestrina, Missa pro defunctis à 5 voix, composée en 1591.
 Tomás Luis de Victoria, Missa pro defunctis à 4 voix (1583) et Officium Defunctorum à 6 voix (1605) ; composé en 1603 en faveur des obsèques de l'impératrice Marie d'Autriche.
 Heinrich Ignaz Franz Biber, Requiem à 15 composé pour les funérailles du cardinal Maximilian Gandolf, comte de Künburg, en 1687.
@@ -806,7 +1003,7 @@
 Louis Homet, Requiem composé vers 1722
 Antonio Lotti, Composé vers 1730.
 François-Joseph Gossec, Messe des morts composée en 1760 sous le nom de Missa pro defunctis et également appelé Grande messe des morts
-Johann Adolph Hasse[13] :
+Johann Adolph Hasse :
 Requiem en ut majeur composé en 1763 à la mémoire du Prince-Électeur de Saxe et Roi de Pologne Auguste III, mort la même année.
 Requiem en mi bémol majeur composé peu après à la mémoire de Frédéric IV de Saxe, héritier d'Auguste III, mort quelques mois après son père.
 On lui attribue également un autre Requiem en mi bémol majeur, ainsi que plusieurs fragments d'office des défunts.
@@ -827,7 +1024,7 @@
 Camille Saint-Saëns, Messe de requiem composée en huit jours d'avril 1878 pour honorer un don d'Albert Libon décédé l'année précédente. Peu après sa création Saint-Saëns perdait en quelques semaines ses deux jeunes enfants (accident et maladie).
 Gabriel Fauré, Messe de requiem de 1888 (création à la Madeleine) complétée en 1893 puis orchestrée - probablement de Jean-Roger Ducasse en 1900.
 Antonín Dvořák, Requiem composé en 1890.
-Charles Gounod[14] :
+Charles Gounod :
 Requiem en ré mineur, composé en 1842 à Vienne sous influence de l'œuvre de Mozart ;
 Messe brève pour les morts, créée en 1873 à Londres ;
 Messe des morts en fa majeur, créée en 1876 à Paris ;
@@ -852,35 +1049,43 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Requiem</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Requiem</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Requiem</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Requiem</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Autres compositeurs de Requiem</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Requiem par périodes
-Renaissance
-Voir aussi Musique de la Renaissance
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Requiem par périodes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Renaissance</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voir aussi Musique de la Renaissance
 Giovanni Francesco Anerio
 Giammateo Asola
 Giulio Belli (en)
@@ -908,8 +1113,47 @@
 Pierre de la Rue
 Claudin de Sermisy
 Jacobus Vaet
-Baroque
-Voir aussi Musique baroque
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Requiem</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Requiem</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Autres compositeurs de Requiem</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Requiem par périodes</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Baroque</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voir aussi Musique baroque
 Heinrich Ignaz Franz Biber
 André Campra
 Joan Cererols
@@ -932,8 +1176,47 @@
 Heinrich Schütz
 Jan Zach
 Jan Dismas Zelenka
-Période classique
-Voir aussi Musique de la période classique
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Requiem</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Requiem</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Autres compositeurs de Requiem</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Requiem par périodes</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Période classique</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voir aussi Musique de la période classique
 Luigi Cherubini
 Florian Leopold Gassmann
 Simon Mayr
@@ -944,8 +1227,47 @@
 Wolfgang Amadeus Mozart
 Ossip Kozlovski
 Ignaz Pleyel
-Romantique
-Voir aussi Musique romantique
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Requiem</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Requiem</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Autres compositeurs de Requiem</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Requiem par périodes</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Romantique</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voir aussi Musique romantique
 Hector Berlioz
 João Domingos Bomtempo
 Johannes Brahms
@@ -970,8 +1292,47 @@
 Sergueï Taneiev Cantate Saint Jean Damascène, Op.1 (Texte d'Alexis Tolstoï)
 Giuseppe Verdi
 Richard Wetz
-XXe siècle
-Voir aussi Musique contemporaine
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Requiem</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Requiem</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Autres compositeurs de Requiem</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Requiem par périodes</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>XXe siècle</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voir aussi Musique contemporaine
 Malcolm Archer (en)
 Vyacheslav Artyomov (en)
 Vidmantas Bartulis (en)
@@ -990,7 +1351,7 @@
 Hanns Eisler Lenin-Requiem (1937)
 Marc Eychenne Requiem (1981)
 Christian Favre (2008)
-Jean-Louis Florentz Asùn, op.7 (ancien titre : Requiem de la Vierge) [1986-1988][15]
+Jean-Louis Florentz Asùn, op.7 (ancien titre : Requiem de la Vierge) [1986-1988]
 Sandro Gorli (1989, à la mémoire de Nathalie Méfano)
 Siegmund von Hausegger, (1907), requiem pour chœur mixte à 8 voix (Texte de Friedrich Hebbel)
 Frigyes Hidas (en)
@@ -1029,8 +1390,48 @@
 Andrew Lloyd Webber
 Kurt Weill Das Berliner Requiem
 Bernd Alois Zimmermann
-XXIe siècle
-Arnaud Dumond (Requiem de la Nativité, 2008, et Requiem for my friend, 1998)[16]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Requiem</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Requiem</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Autres compositeurs de Requiem</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Requiem par périodes</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>XXIe siècle</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Arnaud Dumond (Requiem de la Nativité, 2008, et Requiem for my friend, 1998)
 Carlos Julio Ramirez Toro (Requiem para 2 coros, 8 solistas y orquesta, 2008)
 Bob Chilcott (2010)
 Christian Favre
@@ -1046,7 +1447,43 @@
 Christopher Rouse
 A Filetta (Di Corsica Riposu, Requiem pour deux regards, 2011).
 Marc L. Vogler (Requiem Covid-19, 2020)
-Requiem par langue (autre que le latin seul)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Requiem</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Requiem</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Autres compositeurs de Requiem</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Requiem par langue (autre que le latin seul)</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Anglais avec latin
 Benjamin Britten
 Herbert Howells
@@ -1078,31 +1515,33 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Requiem</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Requiem</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Requiem</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Requiem</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Le Requiem dans la culture populaire</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>Alexandre Borodine a composé un Requiem pour la pièce collaborative Paraphrases.
 Dans une parodie de Geisslerlied (en) (Chant de flagellants), des moines, dans le film Monty Python : Sacré Graal !, chantent le Pie Jesu tout en se frappant avec leur livre.
